--- a/biology/Médecine/Antivenin/Antivenin.xlsx
+++ b/biology/Médecine/Antivenin/Antivenin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un antivenin est une composition biologique utilisée en guise de traitement contre des piqûres ou morsures venimeuses. L'antivenin est créé par extraction du venin du serpent, de l'araignée ou de l'insecte concerné. Le venin est ensuite dilué et injecté dans un cheval, un mouton, un lapin, ou une chèvre. Le système immunitaire du sujet animal réagit, produisant des anticorps contre la molécule active du venin qui peut être récolté dans le sang de l'animal et utilisé pour traiter l'envenimation. À l'international, les antivenins doivent conformer aux règlementations de la pharmacopée et aux exigences de l'Organisation mondiale de la santé[1].
-Le terme d'antivenin se compose du mot « venin », qui, lui, provient du mot latin venenum, signifiant « poison ». Historiquement, le terme d'antivenin est très utilisé dans le monde, sa première utilisation datant de 1895[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un antivenin est une composition biologique utilisée en guise de traitement contre des piqûres ou morsures venimeuses. L'antivenin est créé par extraction du venin du serpent, de l'araignée ou de l'insecte concerné. Le venin est ensuite dilué et injecté dans un cheval, un mouton, un lapin, ou une chèvre. Le système immunitaire du sujet animal réagit, produisant des anticorps contre la molécule active du venin qui peut être récolté dans le sang de l'animal et utilisé pour traiter l'envenimation. À l'international, les antivenins doivent conformer aux règlementations de la pharmacopée et aux exigences de l'Organisation mondiale de la santé.
+Le terme d'antivenin se compose du mot « venin », qui, lui, provient du mot latin venenum, signifiant « poison ». Historiquement, le terme d'antivenin est très utilisé dans le monde, sa première utilisation datant de 1895.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de l'antivenin se base sur celui du vaccin, développé par Edward Jenner ; cependant, plutôt que d'injecter directement l'immunisation au patient, il est injecté dans un sujet animal, puis le sérum hyper-immunisant est transfusé au patient. Les antivenins peuvent être catégorisés comme monovalents (lorsqu'ils sont efficaces contre une seule espèce animale) ou polyvalents (lorsqu'ils sont efficaces contre plusieurs ou différentes espèces). Les premiers antivenins pour serpents (appelé sérum antiophidique) ont été développé par Césaire Phisalix et Albert Calmette, scientifiques français du Muséum d'Histoire Naturelle de Paris et de l'Institut Pasteur travaillant sur un antidote contre la morsure des vipères et du Cobra indien (Naja naja). En 1901, Vital Brazil, à l'Instituto Butantan de São Paulo, au Brésil, développe les premiers antivenins monovalents et polyvalents contre les genres Crotalus et Bothrops d'Amérique du Sud et d'Amérique centrale, et également contre certaines espèces d'araignées, de scorpions, et de grenouilles venimeuses.
-Les antivenins utilisés à des fins thérapeutiques sont souvent sous forme lyophilisée, bien que certains ne soient disponibles que sous forme liquide et doivent rester au frais (sérum antivenimeux). La majorité des antivenins (dont les antivenins pour serpents) sont administrés par intraveineuse ; cependant, les antivenins contre les genres Synanceia et Latrodectus hasselti sont administrés par injection intramusculaire. La voie intramusculaire a souvent été remise en question dans son efficacité[3].
-Un antivenin vise à arrêter les effets du venin, et donc tout dégât supplémentaire, mais n'inverse pas les dégâts déjà occasionnés. De ce fait, il doit être administré le plus vite possible après injection du venin. Depuis l'arrivée des antivenins, certaines morsures auparavant invariablement mortelles sont désormais rarement mortelles si l'antivenin est administré le plus tôt possible. Les antivenins sont purifiés grâce à de nombreux procédés, mais s'accompagneront toujours de protéines d'autres sérums agissant comme antigènes. Certains individus peuvent réagir à l'antivenin avec hypersensibilité immédiate (anaphylaxie) ou avec hypersensibilité retardée. Quoi qu'il en soit, l'antivenin reste le seul traitement efficace face à une condition mortelle. Dans une légende urbaine, un individu allergique aux chevaux « ne peut pas » obtenir d'antivenin, mais les effets secondaires peuvent être pris en charge, et l'antivenin doit être administré tant que ces effets secondaires sont pris en charge[4].
+Les antivenins utilisés à des fins thérapeutiques sont souvent sous forme lyophilisée, bien que certains ne soient disponibles que sous forme liquide et doivent rester au frais (sérum antivenimeux). La majorité des antivenins (dont les antivenins pour serpents) sont administrés par intraveineuse ; cependant, les antivenins contre les genres Synanceia et Latrodectus hasselti sont administrés par injection intramusculaire. La voie intramusculaire a souvent été remise en question dans son efficacité.
+Un antivenin vise à arrêter les effets du venin, et donc tout dégât supplémentaire, mais n'inverse pas les dégâts déjà occasionnés. De ce fait, il doit être administré le plus vite possible après injection du venin. Depuis l'arrivée des antivenins, certaines morsures auparavant invariablement mortelles sont désormais rarement mortelles si l'antivenin est administré le plus tôt possible. Les antivenins sont purifiés grâce à de nombreux procédés, mais s'accompagneront toujours de protéines d'autres sérums agissant comme antigènes. Certains individus peuvent réagir à l'antivenin avec hypersensibilité immédiate (anaphylaxie) ou avec hypersensibilité retardée. Quoi qu'il en soit, l'antivenin reste le seul traitement efficace face à une condition mortelle. Dans une légende urbaine, un individu allergique aux chevaux « ne peut pas » obtenir d'antivenin, mais les effets secondaires peuvent être pris en charge, et l'antivenin doit être administré tant que ces effets secondaires sont pris en charge.
 </t>
         </is>
       </c>
@@ -545,15 +559,12 @@
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les antivenins ont été développés en fonction du venin associé aux animaux et insectes suivants[5] :
-Araignées
-Tiques
-Insectes
-Scorpions
-Animaux marins
-Serpents</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antivenins ont été développés en fonction du venin associé aux animaux et insectes suivants :
+</t>
         </is>
       </c>
     </row>
